--- a/untranslated/downloads/data-excel/15.1.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.1.1.1.xlsx
@@ -729,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +746,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25">
+    <row r="1" spans="1:12" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -768,12 +768,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,8 +807,11 @@
       <c r="K4" s="13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -842,8 +845,11 @@
       <c r="K5" s="19">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="19">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -877,8 +883,11 @@
       <c r="K6" s="20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -912,8 +921,11 @@
       <c r="K7" s="20">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="20">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -947,8 +959,11 @@
       <c r="K8" s="20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -982,8 +997,11 @@
       <c r="K9" s="20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1017,8 +1035,11 @@
       <c r="K10" s="20">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1052,8 +1073,11 @@
       <c r="K11" s="20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L11" s="20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1087,8 +1111,11 @@
       <c r="K12" s="21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.5">
+      <c r="L12" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="34.5">
       <c r="A13" s="18" t="s">
         <v>32</v>
       </c>

--- a/untranslated/downloads/data-excel/15.1.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.1.1.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -136,6 +136,9 @@
   <si>
     <t xml:space="preserve">15.1.1.1 Өлкөнүн жалпы аянтына карата пайыздык катышта токойлордун аянты
 </t>
+  </si>
+  <si>
+    <t>По данным лесоустройства 2022 года Лесной службы при Министерстве чрезвычайных ситуаций КР</t>
   </si>
 </sst>
 </file>
@@ -729,11 +732,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -746,7 +747,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25">
+    <row r="1" spans="1:14" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -757,7 +758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -768,12 +769,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,8 +811,14 @@
       <c r="L4" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="13">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -848,8 +855,14 @@
       <c r="L5" s="19">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="N5" s="19">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -886,8 +899,14 @@
       <c r="L6" s="20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -924,8 +943,14 @@
       <c r="L7" s="20">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="N7" s="20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -962,8 +987,14 @@
       <c r="L8" s="20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1031,14 @@
       <c r="L9" s="20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1038,8 +1075,14 @@
       <c r="L10" s="20">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1076,8 +1119,14 @@
       <c r="L11" s="20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="M11" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1114,8 +1163,14 @@
       <c r="L12" s="21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="34.5">
+      <c r="M12" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34.5">
       <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
@@ -1124,6 +1179,11 @@
       </c>
       <c r="C13" s="17" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="34.5">
+      <c r="B14" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/15.1.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.1.1.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -116,9 +116,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in percents)</t>
-  </si>
-  <si>
     <t>Approved by the Decree of the Government of the Kyrgyz Republic dated July 26, 2011 No. 407</t>
   </si>
   <si>
@@ -134,11 +131,72 @@
     <t>15.1.1.1 Forest area as a proportion of total country</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1.1.1 Өлкөнүн жалпы аянтына карата пайыздык катышта токойлордун аянты
-</t>
-  </si>
-  <si>
-    <t>По данным лесоустройства 2022 года Лесной службы при Министерстве чрезвычайных ситуаций КР</t>
+    <t>15.1.1.1 Өлкөнүн жалпы аянтына карата пайыздык катышта токойлордун аянты</t>
+  </si>
+  <si>
+    <r>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>По данным лесоустройства 2022 года Лесной службы при Министерстве чрезвычайных ситуаций КР</t>
+    </r>
+  </si>
+  <si>
+    <t>Кыргыз Республикасынын Өзгөчө кырдаалдар министрлигине караштуу Токой кызматынын 2022-жылдагы токой чарбасы маалыматы боюнча</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>According to forest management data for 2022 of the Forest Service under the Ministry of Emergency Situations of the Kyrgyz Republic</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -150,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +328,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,7 +466,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -397,15 +475,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Normal 17" xfId="19"/>
@@ -732,49 +828,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="1" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="15" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25">
+    <row r="1" spans="1:15" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,41 +908,44 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="17">
         <v>2012</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="17">
         <v>2013</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="17">
         <v>2014</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="17">
         <v>2015</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>2016</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>2017</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="17">
         <v>2018</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="17">
         <v>2019</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="17">
         <v>2020</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="17">
         <v>2021</v>
       </c>
-      <c r="N4" s="13">
-        <v>2022</v>
+      <c r="N4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -828,41 +955,44 @@
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>5.58</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>5.58</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>5.67</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>5.67</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>5.67</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>5.58</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>5.6</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>5.6</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>5.6</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>5.6</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <v>6.3</v>
       </c>
+      <c r="O5" s="18">
+        <v>6.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -872,41 +1002,44 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>0.8</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0.8</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0.8</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.8</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>0.8</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>0.8</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>0.8</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>0.8</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0.8</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>0.8</v>
       </c>
+      <c r="O6" s="19">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -916,41 +1049,44 @@
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1.9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>1.9</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>1.9</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>1.69</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>1.69</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>1.9</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>1.9</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>1.9</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>1.9</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>1.9</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>2.4</v>
       </c>
+      <c r="O7" s="19">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -960,41 +1096,44 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="D8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="19">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1004,41 +1143,44 @@
       <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="D9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="19">
         <v>0.67</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.67</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>0.68</v>
       </c>
-      <c r="J9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="J9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="19">
         <v>0.8</v>
       </c>
+      <c r="O9" s="19">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1048,41 +1190,44 @@
       <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0.9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0.9</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>0.96</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0.97</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>0.97</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>0.9</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>0.9</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>0.9</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>0.9</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>0.9</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>1</v>
       </c>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1092,102 +1237,139 @@
       <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>0.3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>0.3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>0.3</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0.3</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>0.3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>0.3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>0.3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>0.3</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>0.3</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0.3</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>0.2</v>
       </c>
+      <c r="O11" s="19">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>0.2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>0.2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>0.2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>0.2</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.2</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>0.2</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>0.2</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>0.2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>0.2</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>0.2</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <v>0.4</v>
       </c>
+      <c r="O12" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="34.5">
-      <c r="A13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:15" ht="33.75">
+      <c r="A13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:14" ht="34.5">
-      <c r="B14" s="17" t="s">
-        <v>36</v>
-      </c>
+    <row r="14" spans="1:15" ht="45">
+      <c r="A14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>